--- a/2048/results/results_montecarlo.xlsx
+++ b/2048/results/results_montecarlo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ULB\Ecole Polytechnique de Bruxelles\M1-IRIF\INFO-H-410\Projet\INFO-H410_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ULB\Ecole Polytechnique de Bruxelles\M1-IRIF\INFO-H-410\Projet\INFO-H410_Project\2048\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0F528-E74A-4D86-961A-627E63D1089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FAB82-98FA-4BE6-B927-3809B9EAB7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="montecarlo50" sheetId="6" r:id="rId1"/>
@@ -389,7 +389,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -579,7 +579,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2973,7 +2973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5970D6-AF2E-4287-864D-C4075DF0AB43}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
@@ -4645,15 +4645,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D38BAD8-FBB3-4453-A45B-E59084D1A6A4}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4741,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L10" si="0">COUNTIF(E$2:E$101,"&lt;5000")</f>
+        <f t="shared" ref="L3" si="0">COUNTIF(E$2:E$101,"&lt;5000")</f>
         <v>9</v>
       </c>
     </row>

--- a/2048/results/results_montecarlo.xlsx
+++ b/2048/results/results_montecarlo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ULB\Ecole Polytechnique de Bruxelles\M1-IRIF\INFO-H-410\Projet\INFO-H410_Project\2048\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FAB82-98FA-4BE6-B927-3809B9EAB7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04259679-0785-4991-898C-A497C9765CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-BE"/>
-              <a:t>MonteCarlo[iteration]</a:t>
+              <a:t>frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-BE" baseline="0"/>
+              <a:t> histogram of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-BE"/>
+              <a:t>MonteCarlo[iterations]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4645,8 +4653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D38BAD8-FBB3-4453-A45B-E59084D1A6A4}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
